--- a/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
+++ b/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -15384,55 +15385,49 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mae ryg wedi'i wneud gan ddefnyddio ceinciau gwlân glas, porffor a choch yn unig. Mae </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t xml:space="preserve">blue: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>x</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> o geinciau glas, pump gwaith yn fwy o geinciau porffor na cheinciau glas, ac 87 o geinciau coch yn llai na cheinciau porffor.
-O ystyried bod gan y ryg gyfanswm o 54 913 o geinciau gwlân, lluniwch hafaliad yn nhermau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, purple: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>x</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a'i ddatrys i ganfod nifer y ceinciau gwlân glas yn y ryg.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">blue: </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, red: 5</t>
     </r>
     <r>
       <rPr>
@@ -15453,7 +15448,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, purple: 5</t>
+      <t xml:space="preserve"> – 87, </t>
     </r>
     <r>
       <rPr>
@@ -15474,7 +15469,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, red: 5</t>
+      <t xml:space="preserve"> = 5000          If we add them all together they should equal 54913, </t>
     </r>
     <r>
       <rPr>
@@ -15495,7 +15490,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> – 87, </t>
+      <t xml:space="preserve"> + 5</t>
     </r>
     <r>
       <rPr>
@@ -15516,7 +15511,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 5000          If we add them all together they should equal 54913, </t>
+      <t xml:space="preserve"> + 5</t>
     </r>
     <r>
       <rPr>
@@ -15537,7 +15532,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 5</t>
+      <t xml:space="preserve"> – 87 = 54913, 11</t>
     </r>
     <r>
       <rPr>
@@ -15558,7 +15553,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> + 5</t>
+      <t xml:space="preserve"> – 87 = 54913, 11</t>
     </r>
     <r>
       <rPr>
@@ -15579,7 +15574,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> – 87 = 54913, 11</t>
+      <t xml:space="preserve"> = 55000, </t>
     </r>
     <r>
       <rPr>
@@ -15599,239 +15594,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – 87 = 54913, 11</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 55000, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 55000 ÷ 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">glas: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, porffor: 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, coch: 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> – 87, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 5000          Os byddwn yn eu hadio i gyd at ei gilydd, dylen nhw fod yn hafal i 54913, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 5</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> – 87 = 54913, 11</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> – 87 = 54913, 11</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 55000, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = 55000 ÷ 11</t>
     </r>
@@ -17700,6 +17462,233 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> pensil?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mae ryg wedi'i wneud gan ddefnyddio ceinciau gwlân glas, porffor a choch yn unig. Mae </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o geinciau glas, pump gwaith yn fwy o geinciau porffor na cheinciau glas, ac 87 o geinciau coch yn llai na cheinciau porffor.
+O ystyried bod gan y ryg gyfanswm o 54 913 o geinciau gwlân, lluniwch hafaliad yn nhermau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a'i ddatrys i ganfod nifer y ceinciau gwlân glas yn y ryg.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">glas: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, porffor: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, coch: 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – 87, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 5000          Os byddwn yn eu hadio i gyd at ei gilydd, dylen nhw fod yn hafal i 54913, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – 87 = 54913, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – 87 = 54913, 11</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 55000, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 55000 ÷ 11</t>
     </r>
   </si>
 </sst>
@@ -19339,8 +19328,8 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20123,10 +20112,10 @@
         <v>282</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>862</v>
@@ -20663,7 +20652,7 @@
         <v>808</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>46</v>
@@ -21417,7 +21406,7 @@
         <v>811</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>68</v>
@@ -21943,10 +21932,10 @@
         <v>92</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F100" s="53" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>935</v>
@@ -22540,7 +22529,7 @@
       <c r="C123" s="73" t="s">
         <v>742</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="85" t="s">
         <v>123</v>
       </c>
       <c r="E123" s="44" t="s">
@@ -22696,7 +22685,7 @@
       <c r="C129" s="52" t="s">
         <v>1456</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="85" t="s">
         <v>1539</v>
       </c>
       <c r="E129" s="13" t="s">
@@ -22722,7 +22711,7 @@
       <c r="C130" s="52" t="s">
         <v>1455</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="85" t="s">
         <v>1541</v>
       </c>
       <c r="E130" s="13" t="s">
@@ -22823,7 +22812,7 @@
       <c r="C134" s="52" t="s">
         <v>552</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="85" t="s">
         <v>970</v>
       </c>
       <c r="E134" s="13" t="s">
@@ -23103,7 +23092,7 @@
       <c r="B145" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C145" s="73" t="s">
+      <c r="C145" s="52" t="s">
         <v>637</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -23207,7 +23196,7 @@
       <c r="B149" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C149" s="72" t="s">
+      <c r="C149" s="51" t="s">
         <v>638</v>
       </c>
       <c r="D149" s="11" t="s">
@@ -23340,7 +23329,7 @@
       <c r="C154" s="52" t="s">
         <v>1611</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="85" t="s">
         <v>127</v>
       </c>
       <c r="E154" s="13">
@@ -23366,7 +23355,7 @@
       <c r="C155" s="52" t="s">
         <v>1611</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="85" t="s">
         <v>128</v>
       </c>
       <c r="E155" s="13">
@@ -23597,7 +23586,7 @@
       <c r="B164" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="C164" s="73" t="s">
+      <c r="C164" s="52" t="s">
         <v>639</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -23780,16 +23769,16 @@
         <v>820</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>1661</v>
+        <v>1834</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>141</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F171" s="60" t="s">
-        <v>1663</v>
+        <v>1835</v>
       </c>
       <c r="G171" s="35" t="s">
         <v>1010</v>
@@ -23834,7 +23823,7 @@
       <c r="C173" s="52" t="s">
         <v>559</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="85" t="s">
         <v>144</v>
       </c>
       <c r="E173" s="27">
@@ -23933,10 +23922,10 @@
         <v>129</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C177" s="56" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>148</v>
@@ -23964,10 +23953,10 @@
         <v>149</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F178" s="53" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G178" s="18" t="s">
         <v>1016</v>
@@ -23990,10 +23979,10 @@
         <v>151</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F179" s="53" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G179" s="18" t="s">
         <v>1017</v>
@@ -24016,10 +24005,10 @@
         <v>63</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F180" s="75" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="G180" s="19" t="s">
         <v>1018</v>
@@ -24114,16 +24103,16 @@
         <v>157</v>
       </c>
       <c r="C184" s="52" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="G184" s="19" t="s">
         <v>1023</v>
@@ -24227,7 +24216,7 @@
         <v>1631</v>
       </c>
       <c r="F188" s="55" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>1027</v>
@@ -24244,7 +24233,7 @@
         <v>1548</v>
       </c>
       <c r="C189" s="73" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>77</v>
@@ -24267,10 +24256,10 @@
         <v>144</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C190" s="52" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>161</v>
@@ -24302,10 +24291,10 @@
         <v>163</v>
       </c>
       <c r="E191" s="42" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F191" s="42" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="G191" s="19" t="s">
         <v>1030</v>
@@ -24328,10 +24317,10 @@
         <v>164</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F192" s="43" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G192" s="19" t="s">
         <v>1031</v>
@@ -24397,19 +24386,19 @@
         <v>148</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C195" s="54" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D195" s="33" t="s">
         <v>165</v>
       </c>
       <c r="E195" s="34" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F195" s="60" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="G195" s="35" t="s">
         <v>1034</v>
@@ -24426,7 +24415,7 @@
         <v>166</v>
       </c>
       <c r="C196" s="52" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>167</v>
@@ -24458,10 +24447,10 @@
         <v>1549</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F197" s="42" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>1036</v>
@@ -24475,10 +24464,10 @@
         <v>154</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C198" s="54" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>77</v>
@@ -24504,7 +24493,7 @@
         <v>174</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>175</v>
@@ -24513,7 +24502,7 @@
         <v>1315</v>
       </c>
       <c r="F199" s="53" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="G199" s="18" t="s">
         <v>1038</v>
@@ -24530,7 +24519,7 @@
         <v>177</v>
       </c>
       <c r="C200" s="51" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>176</v>
@@ -24671,10 +24660,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C206" s="52" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>341</v>
@@ -24692,10 +24681,10 @@
         <v>301</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="C207" s="52" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>342</v>
@@ -24713,7 +24702,7 @@
         <v>302</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C208" s="52" t="s">
         <v>1586</v>
@@ -24781,7 +24770,7 @@
         <v>345</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>347</v>
@@ -24821,7 +24810,7 @@
         <v>307</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C213" s="52" t="s">
         <v>566</v>
@@ -25027,7 +25016,7 @@
         <v>185</v>
       </c>
       <c r="C221" s="51" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>184</v>
@@ -25053,7 +25042,7 @@
         <v>186</v>
       </c>
       <c r="C222" s="51" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>187</v>
@@ -25105,7 +25094,7 @@
         <v>191</v>
       </c>
       <c r="C224" s="54" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>190</v>
@@ -25128,10 +25117,10 @@
         <v>166</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C225" s="52" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>24</v>
@@ -25183,16 +25172,16 @@
         <v>194</v>
       </c>
       <c r="C227" s="54" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E227" s="34" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F227" s="60" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="G227" s="35" t="s">
         <v>1067</v>
@@ -25206,10 +25195,10 @@
         <v>173</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C228" s="52" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>77</v>
@@ -25267,10 +25256,10 @@
         <v>199</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="G230" s="19" t="s">
         <v>1070</v>
@@ -25287,7 +25276,7 @@
         <v>354</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>355</v>
@@ -25313,16 +25302,16 @@
         <v>1580</v>
       </c>
       <c r="C232" s="52" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>356</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F232" s="55" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G232" s="19" t="s">
         <v>1072</v>
@@ -25388,10 +25377,10 @@
         <v>316</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C235" s="52" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>359</v>
@@ -25411,10 +25400,10 @@
         <v>317</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C236" s="52" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>452</v>
@@ -25486,7 +25475,7 @@
         <v>174</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C239" s="52" t="s">
         <v>572</v>
@@ -25495,10 +25484,10 @@
         <v>200</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F239" s="55" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>1079</v>
@@ -25524,7 +25513,7 @@
         <v>516</v>
       </c>
       <c r="F240" s="55" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>1080</v>
@@ -25564,10 +25553,10 @@
         <v>177</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C242" s="52" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>24</v>
@@ -25590,10 +25579,10 @@
         <v>178</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C243" s="54" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D243" s="33" t="s">
         <v>204</v>
@@ -25619,7 +25608,7 @@
         <v>361</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>1084</v>
@@ -25671,7 +25660,7 @@
         <v>1231</v>
       </c>
       <c r="C246" s="54" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D246" s="33" t="s">
         <v>369</v>
@@ -25723,16 +25712,16 @@
         <v>1485</v>
       </c>
       <c r="C248" s="54" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D248" s="33" t="s">
         <v>371</v>
       </c>
       <c r="E248" s="34" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F248" s="60" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G248" s="35" t="s">
         <v>1089</v>
@@ -25749,7 +25738,7 @@
         <v>1232</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>114</v>
@@ -25915,10 +25904,10 @@
         <v>188</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C256" s="52" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>63</v>
@@ -25970,16 +25959,16 @@
         <v>216</v>
       </c>
       <c r="C258" s="52" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F258" s="55" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>1099</v>
@@ -26002,10 +25991,10 @@
         <v>63</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F259" s="75" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G259" s="19" t="s">
         <v>1100</v>
@@ -26019,10 +26008,10 @@
         <v>192</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C260" s="52" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>1101</v>
@@ -26048,7 +26037,7 @@
         <v>1235</v>
       </c>
       <c r="C261" s="52" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>218</v>
@@ -26132,10 +26121,10 @@
         <v>206</v>
       </c>
       <c r="E264" s="14" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F264" s="84" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G264" s="18" t="s">
         <v>1106</v>
@@ -26152,7 +26141,7 @@
         <v>1107</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>207</v>
@@ -26178,7 +26167,7 @@
         <v>1109</v>
       </c>
       <c r="C266" s="51" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>207</v>
@@ -26227,10 +26216,10 @@
         <v>183</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C268" s="52" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>24</v>
@@ -26494,7 +26483,7 @@
         <v>460</v>
       </c>
       <c r="F278" s="53" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G278" s="18" t="s">
         <v>1122</v>
@@ -26543,10 +26532,10 @@
         <v>380</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F280" s="53" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G280" s="18" t="s">
         <v>1125</v>
@@ -26637,7 +26626,7 @@
         <v>386</v>
       </c>
       <c r="C284" s="51" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>387</v>
@@ -26663,7 +26652,7 @@
         <v>1243</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>355</v>
@@ -26689,7 +26678,7 @@
         <v>388</v>
       </c>
       <c r="C286" s="51" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>382</v>
@@ -26741,7 +26730,7 @@
         <v>373</v>
       </c>
       <c r="C288" s="56" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="23"/>
@@ -26761,7 +26750,7 @@
         <v>390</v>
       </c>
       <c r="C289" s="54" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D289" s="33" t="s">
         <v>391</v>
@@ -26822,7 +26811,7 @@
         <v>1564</v>
       </c>
       <c r="F291" s="53" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="G291" s="18" t="s">
         <v>1137</v>
@@ -26865,7 +26854,7 @@
         <v>1245</v>
       </c>
       <c r="C293" s="54" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D293" s="33" t="s">
         <v>223</v>
@@ -26917,16 +26906,16 @@
         <v>1581</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D295" s="33" t="s">
         <v>221</v>
       </c>
       <c r="E295" s="34" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F295" s="60" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G295" s="35" t="s">
         <v>1141</v>
@@ -26995,7 +26984,7 @@
         <v>1246</v>
       </c>
       <c r="C298" s="54" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D298" s="33" t="s">
         <v>395</v>
@@ -27047,7 +27036,7 @@
         <v>1248</v>
       </c>
       <c r="C300" s="54" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D300" s="33" t="s">
         <v>397</v>
@@ -27257,10 +27246,10 @@
         <v>77</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F308" s="75" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G308" s="19" t="s">
         <v>1154</v>
@@ -27378,19 +27367,19 @@
         <v>202</v>
       </c>
       <c r="B313" s="33" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C313" s="54" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D313" s="33" t="s">
         <v>224</v>
       </c>
       <c r="E313" s="34" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F313" s="60" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G313" s="35" t="s">
         <v>1159</v>
@@ -27413,10 +27402,10 @@
         <v>226</v>
       </c>
       <c r="E314" s="14" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F314" s="53" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G314" s="18" t="s">
         <v>1160</v>
@@ -27618,10 +27607,10 @@
         <v>366</v>
       </c>
       <c r="B322" s="33" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C322" s="54" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D322" s="33" t="s">
         <v>355</v>
@@ -27725,7 +27714,7 @@
         <v>431</v>
       </c>
       <c r="C326" s="52" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>406</v>
@@ -27855,7 +27844,7 @@
         <v>426</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D331" s="33" t="s">
         <v>427</v>
@@ -27890,7 +27879,7 @@
         <v>476</v>
       </c>
       <c r="F332" s="63" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G332" s="19" t="s">
         <v>1179</v>
@@ -27930,7 +27919,7 @@
         <v>370</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C334" s="52" t="s">
         <v>1622</v>
@@ -28013,10 +28002,10 @@
         <v>24</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F337" s="55" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>1184</v>
@@ -28056,10 +28045,10 @@
         <v>219</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C339" s="52" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>238</v>
@@ -28082,19 +28071,19 @@
         <v>211</v>
       </c>
       <c r="B340" s="33" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C340" s="54" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D340" s="33" t="s">
         <v>231</v>
       </c>
       <c r="E340" s="34" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F340" s="60" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="G340" s="35" t="s">
         <v>1187</v>
@@ -28117,10 +28106,10 @@
         <v>232</v>
       </c>
       <c r="E341" s="34" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F341" s="60" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="G341" s="35" t="s">
         <v>1188</v>
@@ -28143,10 +28132,10 @@
         <v>114</v>
       </c>
       <c r="E342" s="34" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F342" s="60" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="G342" s="35" t="s">
         <v>1189</v>
@@ -28189,7 +28178,7 @@
         <v>234</v>
       </c>
       <c r="C344" s="52" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>1569</v>
@@ -28221,10 +28210,10 @@
         <v>1572</v>
       </c>
       <c r="E345" s="42" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F345" s="78" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="G345" s="19" t="s">
         <v>1192</v>
@@ -28241,7 +28230,7 @@
         <v>432</v>
       </c>
       <c r="C346" s="52" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>406</v>
@@ -28267,7 +28256,7 @@
         <v>1259</v>
       </c>
       <c r="C347" s="52" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>433</v>
@@ -28345,7 +28334,7 @@
         <v>240</v>
       </c>
       <c r="C350" s="52" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>241</v>
@@ -28394,19 +28383,19 @@
         <v>222</v>
       </c>
       <c r="B352" s="33" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C352" s="54" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D352" s="33" t="s">
         <v>243</v>
       </c>
       <c r="E352" s="34" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F352" s="60" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G352" s="35" t="s">
         <v>1199</v>
@@ -28429,10 +28418,10 @@
         <v>245</v>
       </c>
       <c r="E353" s="34" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F353" s="60" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G353" s="35" t="s">
         <v>1200</v>
@@ -28468,10 +28457,10 @@
         <v>225</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="C355" s="52" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>247</v>
@@ -28503,10 +28492,10 @@
         <v>1136</v>
       </c>
       <c r="E356" s="34" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F356" s="60" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G356" s="35" t="s">
         <v>1203</v>
@@ -28523,7 +28512,7 @@
         <v>234</v>
       </c>
       <c r="C357" s="52" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>1573</v>
@@ -28546,7 +28535,7 @@
         <v>229</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C358" s="52" t="s">
         <v>741</v>
@@ -28572,7 +28561,7 @@
         <v>232</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C359" s="52" t="s">
         <v>741</v>
@@ -28612,7 +28601,7 @@
         <v>1207</v>
       </c>
       <c r="H360" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -28629,10 +28618,10 @@
         <v>114</v>
       </c>
       <c r="E361" s="34" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F361" s="60" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="G361" s="35" t="s">
         <v>1208</v>
@@ -28675,16 +28664,16 @@
         <v>274</v>
       </c>
       <c r="C363" s="54" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D363" s="33" t="s">
         <v>275</v>
       </c>
       <c r="E363" s="34" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F363" s="60" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="G363" s="35" t="s">
         <v>1210</v>
@@ -28707,10 +28696,10 @@
         <v>277</v>
       </c>
       <c r="E364" s="34" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F364" s="60" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="G364" s="35" t="s">
         <v>1211</v>
@@ -28724,19 +28713,19 @@
         <v>234</v>
       </c>
       <c r="B365" s="33" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C365" s="54" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D365" s="33" t="s">
         <v>255</v>
       </c>
       <c r="E365" s="34" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F365" s="60" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G365" s="35" t="s">
         <v>1212</v>
@@ -28759,10 +28748,10 @@
         <v>114</v>
       </c>
       <c r="E366" s="34" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F366" s="60" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G366" s="35" t="s">
         <v>1213</v>
@@ -28801,16 +28790,16 @@
         <v>258</v>
       </c>
       <c r="C368" s="54" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D368" s="33" t="s">
         <v>1136</v>
       </c>
       <c r="E368" s="34" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F368" s="60" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="G368" s="35" t="s">
         <v>1215</v>
@@ -28833,10 +28822,10 @@
         <v>260</v>
       </c>
       <c r="E369" s="34" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="F369" s="76" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="G369" s="35" t="s">
         <v>1216</v>
@@ -28879,16 +28868,16 @@
         <v>262</v>
       </c>
       <c r="C371" s="52" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F371" s="55" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>1218</v>
@@ -28937,10 +28926,10 @@
         <v>267</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F373" s="55" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="G373" s="19" t="s">
         <v>1220</v>
@@ -28954,19 +28943,19 @@
         <v>245</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C374" s="52" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="F374" s="55" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G374" s="19" t="s">
         <v>1221</v>
@@ -29009,7 +28998,7 @@
         <v>1262</v>
       </c>
       <c r="C376" s="54" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D376" s="33" t="s">
         <v>266</v>
@@ -29035,7 +29024,7 @@
         <v>270</v>
       </c>
       <c r="C377" s="52" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>268</v>
@@ -29061,7 +29050,7 @@
         <v>271</v>
       </c>
       <c r="C378" s="52" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>269</v>
@@ -29087,7 +29076,7 @@
         <v>272</v>
       </c>
       <c r="C379" s="52" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>273</v>
@@ -29110,19 +29099,19 @@
         <v>249</v>
       </c>
       <c r="B380" s="33" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C380" s="54" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D380" s="33" t="s">
         <v>338</v>
       </c>
       <c r="E380" s="34" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="F380" s="60" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="G380" s="35" t="s">
         <v>1227</v>

--- a/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
+++ b/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="120" windowWidth="18750" windowHeight="11640"/>
+    <workbookView xWindow="-1800" yWindow="1470" windowWidth="18750" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -15736,35 +15735,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ysgrifennwch </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>fed term y dilyniant uchod.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>7 × 10</t>
     </r>
     <r>
@@ -17689,6 +17659,29 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = 55000 ÷ 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ysgrifennwch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>fed term y dilyniant uchod.</t>
     </r>
   </si>
 </sst>
@@ -19328,8 +19321,8 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20112,10 +20105,10 @@
         <v>282</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F30" s="55" t="s">
         <v>1773</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>1774</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>862</v>
@@ -20652,7 +20645,7 @@
         <v>808</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>46</v>
@@ -21406,7 +21399,7 @@
         <v>811</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>68</v>
@@ -21932,10 +21925,10 @@
         <v>92</v>
       </c>
       <c r="E100" s="14" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F100" s="53" t="s">
         <v>1775</v>
-      </c>
-      <c r="F100" s="53" t="s">
-        <v>1776</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>935</v>
@@ -23769,7 +23762,7 @@
         <v>820</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>141</v>
@@ -23778,7 +23771,7 @@
         <v>1661</v>
       </c>
       <c r="F171" s="60" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G171" s="35" t="s">
         <v>1010</v>
@@ -24154,7 +24147,7 @@
       <c r="B186" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C186" s="73" t="s">
+      <c r="C186" s="52" t="s">
         <v>751</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -24206,7 +24199,7 @@
       <c r="B188" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C188" s="73" t="s">
+      <c r="C188" s="52" t="s">
         <v>753</v>
       </c>
       <c r="D188" t="s">
@@ -24259,7 +24252,7 @@
         <v>1674</v>
       </c>
       <c r="C190" s="52" t="s">
-        <v>1675</v>
+        <v>1835</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>161</v>
@@ -24291,10 +24284,10 @@
         <v>163</v>
       </c>
       <c r="E191" s="42" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F191" s="42" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G191" s="19" t="s">
         <v>1030</v>
@@ -24317,10 +24310,10 @@
         <v>164</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F192" s="43" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G192" s="19" t="s">
         <v>1031</v>
@@ -24386,19 +24379,19 @@
         <v>148</v>
       </c>
       <c r="B195" s="33" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C195" s="54" t="s">
         <v>1678</v>
-      </c>
-      <c r="C195" s="54" t="s">
-        <v>1679</v>
       </c>
       <c r="D195" s="33" t="s">
         <v>165</v>
       </c>
       <c r="E195" s="34" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F195" s="60" t="s">
         <v>1680</v>
-      </c>
-      <c r="F195" s="60" t="s">
-        <v>1681</v>
       </c>
       <c r="G195" s="35" t="s">
         <v>1034</v>
@@ -24415,9 +24408,9 @@
         <v>166</v>
       </c>
       <c r="C196" s="52" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D196" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D196" s="85" t="s">
         <v>167</v>
       </c>
       <c r="E196" s="27">
@@ -24443,14 +24436,14 @@
       <c r="C197" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="85" t="s">
         <v>1549</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F197" s="42" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>1036</v>
@@ -24464,10 +24457,10 @@
         <v>154</v>
       </c>
       <c r="B198" s="33" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C198" s="54" t="s">
         <v>1684</v>
-      </c>
-      <c r="C198" s="54" t="s">
-        <v>1685</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>77</v>
@@ -24493,7 +24486,7 @@
         <v>174</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>175</v>
@@ -24502,7 +24495,7 @@
         <v>1315</v>
       </c>
       <c r="F199" s="53" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G199" s="18" t="s">
         <v>1038</v>
@@ -24519,7 +24512,7 @@
         <v>177</v>
       </c>
       <c r="C200" s="51" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>176</v>
@@ -24544,10 +24537,10 @@
       <c r="B201" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C201" s="73" t="s">
+      <c r="C201" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="85" t="s">
         <v>171</v>
       </c>
       <c r="E201" s="44" t="s">
@@ -24570,7 +24563,7 @@
       <c r="B202" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C202" s="73" t="s">
+      <c r="C202" s="52" t="s">
         <v>642</v>
       </c>
       <c r="D202" s="3" t="s">
@@ -24660,10 +24653,10 @@
         <v>300</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C206" s="52" t="s">
         <v>1689</v>
-      </c>
-      <c r="C206" s="52" t="s">
-        <v>1690</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>341</v>
@@ -24681,10 +24674,10 @@
         <v>301</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C207" s="52" t="s">
         <v>1691</v>
-      </c>
-      <c r="C207" s="52" t="s">
-        <v>1692</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>342</v>
@@ -24702,12 +24695,12 @@
         <v>302</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C208" s="52" t="s">
         <v>1586</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="85" t="s">
         <v>343</v>
       </c>
       <c r="F208" s="13"/>
@@ -24770,7 +24763,7 @@
         <v>345</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>347</v>
@@ -24810,7 +24803,7 @@
         <v>307</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C213" s="52" t="s">
         <v>566</v>
@@ -25016,7 +25009,7 @@
         <v>185</v>
       </c>
       <c r="C221" s="51" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>184</v>
@@ -25042,7 +25035,7 @@
         <v>186</v>
       </c>
       <c r="C222" s="51" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>187</v>
@@ -25070,7 +25063,7 @@
       <c r="C223" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="85" t="s">
         <v>188</v>
       </c>
       <c r="E223" s="13" t="s">
@@ -25094,7 +25087,7 @@
         <v>191</v>
       </c>
       <c r="C224" s="54" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>190</v>
@@ -25117,10 +25110,10 @@
         <v>166</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C225" s="52" t="s">
         <v>1699</v>
-      </c>
-      <c r="C225" s="52" t="s">
-        <v>1700</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>24</v>
@@ -25172,16 +25165,16 @@
         <v>194</v>
       </c>
       <c r="C227" s="54" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E227" s="34" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F227" s="60" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G227" s="35" t="s">
         <v>1067</v>
@@ -25195,10 +25188,10 @@
         <v>173</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C228" s="52" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>77</v>
@@ -25256,10 +25249,10 @@
         <v>199</v>
       </c>
       <c r="E230" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F230" s="75" t="s">
         <v>1705</v>
-      </c>
-      <c r="F230" s="75" t="s">
-        <v>1706</v>
       </c>
       <c r="G230" s="19" t="s">
         <v>1070</v>
@@ -25276,7 +25269,7 @@
         <v>354</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>355</v>
@@ -25302,16 +25295,16 @@
         <v>1580</v>
       </c>
       <c r="C232" s="52" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>356</v>
       </c>
       <c r="E232" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F232" s="55" t="s">
         <v>1709</v>
-      </c>
-      <c r="F232" s="55" t="s">
-        <v>1710</v>
       </c>
       <c r="G232" s="19" t="s">
         <v>1072</v>
@@ -25377,10 +25370,10 @@
         <v>316</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C235" s="52" t="s">
         <v>1711</v>
-      </c>
-      <c r="C235" s="52" t="s">
-        <v>1712</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>359</v>
@@ -25400,10 +25393,10 @@
         <v>317</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C236" s="52" t="s">
         <v>1711</v>
-      </c>
-      <c r="C236" s="52" t="s">
-        <v>1712</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>452</v>
@@ -25475,7 +25468,7 @@
         <v>174</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C239" s="52" t="s">
         <v>572</v>
@@ -25484,10 +25477,10 @@
         <v>200</v>
       </c>
       <c r="E239" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F239" s="55" t="s">
         <v>1714</v>
-      </c>
-      <c r="F239" s="55" t="s">
-        <v>1715</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>1079</v>
@@ -25513,7 +25506,7 @@
         <v>516</v>
       </c>
       <c r="F240" s="55" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>1080</v>
@@ -25553,10 +25546,10 @@
         <v>177</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C242" s="52" t="s">
         <v>1717</v>
-      </c>
-      <c r="C242" s="52" t="s">
-        <v>1718</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>24</v>
@@ -25579,10 +25572,10 @@
         <v>178</v>
       </c>
       <c r="B243" s="33" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C243" s="54" t="s">
         <v>1719</v>
-      </c>
-      <c r="C243" s="54" t="s">
-        <v>1720</v>
       </c>
       <c r="D243" s="33" t="s">
         <v>204</v>
@@ -25608,7 +25601,7 @@
         <v>361</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>1084</v>
@@ -25660,7 +25653,7 @@
         <v>1231</v>
       </c>
       <c r="C246" s="54" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D246" s="33" t="s">
         <v>369</v>
@@ -25712,16 +25705,16 @@
         <v>1485</v>
       </c>
       <c r="C248" s="54" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D248" s="33" t="s">
         <v>371</v>
       </c>
       <c r="E248" s="34" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F248" s="60" t="s">
         <v>1725</v>
-      </c>
-      <c r="F248" s="60" t="s">
-        <v>1726</v>
       </c>
       <c r="G248" s="35" t="s">
         <v>1089</v>
@@ -25738,7 +25731,7 @@
         <v>1232</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>114</v>
@@ -25904,10 +25897,10 @@
         <v>188</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C256" s="52" t="s">
         <v>1728</v>
-      </c>
-      <c r="C256" s="52" t="s">
-        <v>1729</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>63</v>
@@ -25959,16 +25952,16 @@
         <v>216</v>
       </c>
       <c r="C258" s="52" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E258" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F258" s="55" t="s">
         <v>1731</v>
-      </c>
-      <c r="F258" s="55" t="s">
-        <v>1732</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>1099</v>
@@ -25991,10 +25984,10 @@
         <v>63</v>
       </c>
       <c r="E259" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F259" s="75" t="s">
         <v>1733</v>
-      </c>
-      <c r="F259" s="75" t="s">
-        <v>1734</v>
       </c>
       <c r="G259" s="19" t="s">
         <v>1100</v>
@@ -26008,10 +26001,10 @@
         <v>192</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C260" s="52" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>1101</v>
@@ -26037,7 +26030,7 @@
         <v>1235</v>
       </c>
       <c r="C261" s="52" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>218</v>
@@ -26121,10 +26114,10 @@
         <v>206</v>
       </c>
       <c r="E264" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F264" s="84" t="s">
         <v>1736</v>
-      </c>
-      <c r="F264" s="84" t="s">
-        <v>1737</v>
       </c>
       <c r="G264" s="18" t="s">
         <v>1106</v>
@@ -26141,7 +26134,7 @@
         <v>1107</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>207</v>
@@ -26167,7 +26160,7 @@
         <v>1109</v>
       </c>
       <c r="C266" s="51" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>207</v>
@@ -26216,10 +26209,10 @@
         <v>183</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C268" s="52" t="s">
         <v>1740</v>
-      </c>
-      <c r="C268" s="52" t="s">
-        <v>1741</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>24</v>
@@ -26483,7 +26476,7 @@
         <v>460</v>
       </c>
       <c r="F278" s="53" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G278" s="18" t="s">
         <v>1122</v>
@@ -26532,10 +26525,10 @@
         <v>380</v>
       </c>
       <c r="E280" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F280" s="53" t="s">
         <v>1743</v>
-      </c>
-      <c r="F280" s="53" t="s">
-        <v>1744</v>
       </c>
       <c r="G280" s="18" t="s">
         <v>1125</v>
@@ -26626,7 +26619,7 @@
         <v>386</v>
       </c>
       <c r="C284" s="51" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>387</v>
@@ -26652,7 +26645,7 @@
         <v>1243</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>355</v>
@@ -26678,7 +26671,7 @@
         <v>388</v>
       </c>
       <c r="C286" s="51" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>382</v>
@@ -26730,7 +26723,7 @@
         <v>373</v>
       </c>
       <c r="C288" s="56" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="23"/>
@@ -26750,7 +26743,7 @@
         <v>390</v>
       </c>
       <c r="C289" s="54" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D289" s="33" t="s">
         <v>391</v>
@@ -26811,7 +26804,7 @@
         <v>1564</v>
       </c>
       <c r="F291" s="53" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G291" s="18" t="s">
         <v>1137</v>
@@ -26854,7 +26847,7 @@
         <v>1245</v>
       </c>
       <c r="C293" s="54" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D293" s="33" t="s">
         <v>223</v>
@@ -26906,16 +26899,16 @@
         <v>1581</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D295" s="33" t="s">
         <v>221</v>
       </c>
       <c r="E295" s="34" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F295" s="60" t="s">
         <v>1753</v>
-      </c>
-      <c r="F295" s="60" t="s">
-        <v>1754</v>
       </c>
       <c r="G295" s="35" t="s">
         <v>1141</v>
@@ -26984,7 +26977,7 @@
         <v>1246</v>
       </c>
       <c r="C298" s="54" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D298" s="33" t="s">
         <v>395</v>
@@ -27036,7 +27029,7 @@
         <v>1248</v>
       </c>
       <c r="C300" s="54" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D300" s="33" t="s">
         <v>397</v>
@@ -27246,10 +27239,10 @@
         <v>77</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F308" s="75" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G308" s="19" t="s">
         <v>1154</v>
@@ -27367,19 +27360,19 @@
         <v>202</v>
       </c>
       <c r="B313" s="33" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C313" s="54" t="s">
         <v>1758</v>
-      </c>
-      <c r="C313" s="54" t="s">
-        <v>1759</v>
       </c>
       <c r="D313" s="33" t="s">
         <v>224</v>
       </c>
       <c r="E313" s="34" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F313" s="60" t="s">
         <v>1788</v>
-      </c>
-      <c r="F313" s="60" t="s">
-        <v>1789</v>
       </c>
       <c r="G313" s="35" t="s">
         <v>1159</v>
@@ -27402,10 +27395,10 @@
         <v>226</v>
       </c>
       <c r="E314" s="14" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F314" s="53" t="s">
         <v>1760</v>
-      </c>
-      <c r="F314" s="53" t="s">
-        <v>1761</v>
       </c>
       <c r="G314" s="18" t="s">
         <v>1160</v>
@@ -27607,10 +27600,10 @@
         <v>366</v>
       </c>
       <c r="B322" s="33" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C322" s="54" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D322" s="33" t="s">
         <v>355</v>
@@ -27714,7 +27707,7 @@
         <v>431</v>
       </c>
       <c r="C326" s="52" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>406</v>
@@ -27844,7 +27837,7 @@
         <v>426</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D331" s="33" t="s">
         <v>427</v>
@@ -27879,7 +27872,7 @@
         <v>476</v>
       </c>
       <c r="F332" s="63" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G332" s="19" t="s">
         <v>1179</v>
@@ -27919,7 +27912,7 @@
         <v>370</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C334" s="52" t="s">
         <v>1622</v>
@@ -28002,10 +27995,10 @@
         <v>24</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F337" s="55" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>1184</v>
@@ -28045,10 +28038,10 @@
         <v>219</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C339" s="52" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>238</v>
@@ -28071,19 +28064,19 @@
         <v>211</v>
       </c>
       <c r="B340" s="33" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C340" s="54" t="s">
         <v>1769</v>
-      </c>
-      <c r="C340" s="54" t="s">
-        <v>1770</v>
       </c>
       <c r="D340" s="33" t="s">
         <v>231</v>
       </c>
       <c r="E340" s="34" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F340" s="60" t="s">
         <v>1790</v>
-      </c>
-      <c r="F340" s="60" t="s">
-        <v>1791</v>
       </c>
       <c r="G340" s="35" t="s">
         <v>1187</v>
@@ -28106,10 +28099,10 @@
         <v>232</v>
       </c>
       <c r="E341" s="34" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F341" s="60" t="s">
         <v>1771</v>
-      </c>
-      <c r="F341" s="60" t="s">
-        <v>1772</v>
       </c>
       <c r="G341" s="35" t="s">
         <v>1188</v>
@@ -28132,10 +28125,10 @@
         <v>114</v>
       </c>
       <c r="E342" s="34" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F342" s="60" t="s">
         <v>1777</v>
-      </c>
-      <c r="F342" s="60" t="s">
-        <v>1778</v>
       </c>
       <c r="G342" s="35" t="s">
         <v>1189</v>
@@ -28178,7 +28171,7 @@
         <v>234</v>
       </c>
       <c r="C344" s="52" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>1569</v>
@@ -28210,10 +28203,10 @@
         <v>1572</v>
       </c>
       <c r="E345" s="42" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F345" s="78" t="s">
         <v>1780</v>
-      </c>
-      <c r="F345" s="78" t="s">
-        <v>1781</v>
       </c>
       <c r="G345" s="19" t="s">
         <v>1192</v>
@@ -28230,7 +28223,7 @@
         <v>432</v>
       </c>
       <c r="C346" s="52" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>406</v>
@@ -28256,7 +28249,7 @@
         <v>1259</v>
       </c>
       <c r="C347" s="52" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>433</v>
@@ -28334,7 +28327,7 @@
         <v>240</v>
       </c>
       <c r="C350" s="52" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>241</v>
@@ -28383,19 +28376,19 @@
         <v>222</v>
       </c>
       <c r="B352" s="33" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C352" s="54" t="s">
         <v>1786</v>
-      </c>
-      <c r="C352" s="54" t="s">
-        <v>1787</v>
       </c>
       <c r="D352" s="33" t="s">
         <v>243</v>
       </c>
       <c r="E352" s="34" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F352" s="60" t="s">
         <v>1792</v>
-      </c>
-      <c r="F352" s="60" t="s">
-        <v>1793</v>
       </c>
       <c r="G352" s="35" t="s">
         <v>1199</v>
@@ -28418,10 +28411,10 @@
         <v>245</v>
       </c>
       <c r="E353" s="34" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F353" s="60" t="s">
         <v>1794</v>
-      </c>
-      <c r="F353" s="60" t="s">
-        <v>1795</v>
       </c>
       <c r="G353" s="35" t="s">
         <v>1200</v>
@@ -28457,10 +28450,10 @@
         <v>225</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C355" s="52" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>247</v>
@@ -28492,10 +28485,10 @@
         <v>1136</v>
       </c>
       <c r="E356" s="34" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F356" s="60" t="s">
         <v>1798</v>
-      </c>
-      <c r="F356" s="60" t="s">
-        <v>1799</v>
       </c>
       <c r="G356" s="35" t="s">
         <v>1203</v>
@@ -28512,7 +28505,7 @@
         <v>234</v>
       </c>
       <c r="C357" s="52" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>1573</v>
@@ -28535,7 +28528,7 @@
         <v>229</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C358" s="52" t="s">
         <v>741</v>
@@ -28561,7 +28554,7 @@
         <v>232</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C359" s="52" t="s">
         <v>741</v>
@@ -28601,7 +28594,7 @@
         <v>1207</v>
       </c>
       <c r="H360" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -28618,10 +28611,10 @@
         <v>114</v>
       </c>
       <c r="E361" s="34" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F361" s="60" t="s">
         <v>1803</v>
-      </c>
-      <c r="F361" s="60" t="s">
-        <v>1804</v>
       </c>
       <c r="G361" s="35" t="s">
         <v>1208</v>
@@ -28664,16 +28657,16 @@
         <v>274</v>
       </c>
       <c r="C363" s="54" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D363" s="33" t="s">
         <v>275</v>
       </c>
       <c r="E363" s="34" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F363" s="60" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G363" s="35" t="s">
         <v>1210</v>
@@ -28696,10 +28689,10 @@
         <v>277</v>
       </c>
       <c r="E364" s="34" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F364" s="60" t="s">
         <v>1807</v>
-      </c>
-      <c r="F364" s="60" t="s">
-        <v>1808</v>
       </c>
       <c r="G364" s="35" t="s">
         <v>1211</v>
@@ -28713,19 +28706,19 @@
         <v>234</v>
       </c>
       <c r="B365" s="33" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C365" s="54" t="s">
         <v>1809</v>
-      </c>
-      <c r="C365" s="54" t="s">
-        <v>1810</v>
       </c>
       <c r="D365" s="33" t="s">
         <v>255</v>
       </c>
       <c r="E365" s="34" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F365" s="60" t="s">
         <v>1792</v>
-      </c>
-      <c r="F365" s="60" t="s">
-        <v>1793</v>
       </c>
       <c r="G365" s="35" t="s">
         <v>1212</v>
@@ -28748,10 +28741,10 @@
         <v>114</v>
       </c>
       <c r="E366" s="34" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F366" s="60" t="s">
         <v>1811</v>
-      </c>
-      <c r="F366" s="60" t="s">
-        <v>1812</v>
       </c>
       <c r="G366" s="35" t="s">
         <v>1213</v>
@@ -28790,16 +28783,16 @@
         <v>258</v>
       </c>
       <c r="C368" s="54" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D368" s="33" t="s">
         <v>1136</v>
       </c>
       <c r="E368" s="34" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F368" s="60" t="s">
         <v>1813</v>
-      </c>
-      <c r="F368" s="60" t="s">
-        <v>1814</v>
       </c>
       <c r="G368" s="35" t="s">
         <v>1215</v>
@@ -28822,10 +28815,10 @@
         <v>260</v>
       </c>
       <c r="E369" s="34" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F369" s="76" t="s">
         <v>1815</v>
-      </c>
-      <c r="F369" s="76" t="s">
-        <v>1816</v>
       </c>
       <c r="G369" s="35" t="s">
         <v>1216</v>
@@ -28868,16 +28861,16 @@
         <v>262</v>
       </c>
       <c r="C371" s="52" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E371" s="13" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F371" s="55" t="s">
         <v>1818</v>
-      </c>
-      <c r="F371" s="55" t="s">
-        <v>1819</v>
       </c>
       <c r="G371" s="19" t="s">
         <v>1218</v>
@@ -28926,10 +28919,10 @@
         <v>267</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F373" s="55" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G373" s="19" t="s">
         <v>1220</v>
@@ -28943,19 +28936,19 @@
         <v>245</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C374" s="52" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F374" s="55" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G374" s="19" t="s">
         <v>1221</v>
@@ -28998,7 +28991,7 @@
         <v>1262</v>
       </c>
       <c r="C376" s="54" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D376" s="33" t="s">
         <v>266</v>
@@ -29024,7 +29017,7 @@
         <v>270</v>
       </c>
       <c r="C377" s="52" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>268</v>
@@ -29050,7 +29043,7 @@
         <v>271</v>
       </c>
       <c r="C378" s="52" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>269</v>
@@ -29076,7 +29069,7 @@
         <v>272</v>
       </c>
       <c r="C379" s="52" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>273</v>
@@ -29099,19 +29092,19 @@
         <v>249</v>
       </c>
       <c r="B380" s="33" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C380" s="54" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D380" s="33" t="s">
         <v>338</v>
       </c>
       <c r="E380" s="34" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F380" s="60" t="s">
         <v>1829</v>
-      </c>
-      <c r="F380" s="60" t="s">
-        <v>1830</v>
       </c>
       <c r="G380" s="35" t="s">
         <v>1227</v>

--- a/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
+++ b/cym/SOTD_QuestionAudit_Cymraeg_(SJ01).xlsx
@@ -5870,90 +5870,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Mae'r rheol sy'n cysylltu </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> â </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> i'w gweld uchod.
-Darganfyddwch werth </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pan fydd </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 8.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Mae petrol yn costio £</t>
     </r>
     <r>
@@ -8617,63 +8533,6 @@
   </si>
   <si>
     <t>Write down 0.04136 correct to 2 significant figures.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Ysgrifennwch faint ongl a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Darganfyddwch faint ongl b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Darganfyddwch faint ongl c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
   </si>
   <si>
     <r>
@@ -15994,35 +15853,6 @@
 Rhowch eich ateb yn ei ffurf symlaf.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Adlewyrchwch siâp A yn y llinell </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 1.</t>
-    </r>
-  </si>
-  <si>
     <t>Yn y diagram uchod, mae AB ac AC yn ddwy llinell syth sy'n cyfarfod yn A. Mae dwy linell baralel PQ ac RS yn torri AB ac AC yn D, E, F a G fel y dangosir. Mae'r onglau  57°, 116° ac x i'w gweld. Darganfyddwch faint ongl x.</t>
   </si>
   <si>
@@ -16151,53 +15981,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Darganfyddwch werth yr hafaliad uchod, pan fydd </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 5 ac </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = –4.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>BE            Perpendicular lines are lines that meet at 90</t>
     </r>
     <r>
@@ -16208,27 +15991,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BE            Llinellau perpendicwlar yw llinellau sy'n cyfarfod ar ongl 90</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>o</t>
     </r>
@@ -16353,35 +16115,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Adlewyrchwch y triongl yn y llinell </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = –1.</t>
-    </r>
-  </si>
-  <si>
     <t>Trawsfudwch y siâp  5 i'r chwith a 2 i lawr.</t>
   </si>
   <si>
@@ -16392,36 +16125,6 @@
   </si>
   <si>
     <t>(a) Mae 7 o 10 wedi'u lliwio, lluosi'r ddau â 10 i gael 70 o 100 = 70%                                                  (b) 100 – ateb i ran (a) = 30%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mae darn o bren â hyd </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> centimetr wedi cael 5 centimetr wedi'i dorri oddi arno.
-Beth yw hyd y darn o bren sydd ar ôl?</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Pa uned fetrig yw'r gorau i'w defnyddio i fesur:
@@ -16458,54 +16161,6 @@
         <family val="2"/>
       </rPr>
       <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mae Peter yn prynu </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> losinen ac mae Mair yn prynu 6 losinen.
-Ysgrifennwch, yn nhermau </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, gyfanswm nifer y losin maen nhw'n eu prynu.</t>
     </r>
   </si>
   <si>
@@ -17682,6 +17337,291 @@
         <family val="2"/>
       </rPr>
       <t>fed term y dilyniant uchod.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adlewyrchwch siâp A yn y llinell </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mae'r rheol sy'n cysylltu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> â </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> i'w gweld uchod.
+Darganfyddwch werth </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pan fydd </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 8.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Darganfyddwch werth yr hafaliad uchod, pan fydd </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 5 ac </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = –4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BE            Llinellau perpendicwlar yw llinellau sy'n cyfarfod ar ongl 90</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Ysgrifennwch faint ongl a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Darganfyddwch faint ongl b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mae'r diagram yn dangos triongl hafalochrog gyda'i fertigau ar dair ochr sgwâr. Darganfyddwch faint ongl c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adlewyrchwch y triongl yn y llinell </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = –1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mae darn o bren â hyd </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> centimetr wedi cael 5 centimetr wedi'i dorri oddi arno.
+Beth yw hyd y darn o bren sydd ar ôl?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mae Peter yn prynu </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> losinen ac mae Mair yn prynu 6 losinen.
+Ysgrifennwch, yn nhermau </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, gyfanswm nifer y losin maen nhw'n eu prynu.</t>
     </r>
   </si>
 </sst>
@@ -17846,7 +17786,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17952,6 +17892,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -17968,7 +17914,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -18203,6 +18149,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19321,8 +19270,8 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19357,10 +19306,10 @@
         <v>16</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19383,10 +19332,10 @@
         <v>434</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19394,10 +19343,10 @@
         <v>277</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>290</v>
@@ -19409,10 +19358,10 @@
         <v>653</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -19429,16 +19378,16 @@
         <v>303</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -19461,10 +19410,10 @@
         <v>594</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -19487,10 +19436,10 @@
         <v>436</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -19507,16 +19456,16 @@
         <v>308</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="F7" s="75" t="s">
         <v>654</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -19527,7 +19476,7 @@
         <v>332</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
@@ -19539,10 +19488,10 @@
         <v>437</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -19550,7 +19499,7 @@
         <v>296</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>714</v>
@@ -19559,16 +19508,16 @@
         <v>333</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F9" s="75" t="s">
         <v>655</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -19588,13 +19537,13 @@
         <v>445</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -19617,10 +19566,10 @@
         <v>438</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -19631,7 +19580,7 @@
         <v>315</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>316</v>
@@ -19643,10 +19592,10 @@
         <v>439</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -19654,7 +19603,7 @@
         <v>283</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>717</v>
@@ -19666,13 +19615,13 @@
         <v>440</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -19680,10 +19629,10 @@
         <v>284</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>318</v>
@@ -19692,13 +19641,13 @@
         <v>656</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -19706,13 +19655,13 @@
         <v>279</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>729</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>657</v>
@@ -19721,10 +19670,10 @@
         <v>657</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -19741,16 +19690,16 @@
         <v>312</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -19761,7 +19710,7 @@
         <v>313</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>314</v>
@@ -19773,10 +19722,10 @@
         <v>658</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -19790,19 +19739,19 @@
         <v>527</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H18" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -19810,10 +19759,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -19825,10 +19774,10 @@
         <v>595</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -19851,10 +19800,10 @@
         <v>596</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -19874,13 +19823,13 @@
         <v>442</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -19888,10 +19837,10 @@
         <v>287</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>322</v>
@@ -19900,13 +19849,13 @@
         <v>443</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H22" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -19923,16 +19872,16 @@
         <v>324</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -19940,25 +19889,25 @@
         <v>290</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H24" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19975,16 +19924,16 @@
         <v>279</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19995,22 +19944,22 @@
         <v>280</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>281</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20018,7 +19967,7 @@
         <v>262</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>528</v>
@@ -20033,10 +19982,10 @@
         <v>597</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20044,10 +19993,10 @@
         <v>263</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>290</v>
@@ -20059,10 +20008,10 @@
         <v>128</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -20079,16 +20028,16 @@
         <v>292</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -20105,16 +20054,16 @@
         <v>282</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H30" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20122,25 +20071,25 @@
         <v>255</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>284</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20148,25 +20097,25 @@
         <v>256</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>285</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20189,10 +20138,10 @@
         <v>598</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20206,19 +20155,19 @@
         <v>530</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20241,10 +20190,10 @@
         <v>599</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H35" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -20252,25 +20201,25 @@
         <v>260</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>870</v>
-      </c>
       <c r="H36" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -20278,25 +20227,25 @@
         <v>261</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>289</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H37" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20319,10 +20268,10 @@
         <v>5.62</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H38" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20330,7 +20279,7 @@
         <v>265</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>725</v>
@@ -20339,16 +20288,16 @@
         <v>293</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H39" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -20365,16 +20314,16 @@
         <v>485</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -20382,25 +20331,25 @@
         <v>267</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>295</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -20417,16 +20366,16 @@
         <v>296</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20434,7 +20383,7 @@
         <v>269</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C43" s="52" t="s">
         <v>625</v>
@@ -20443,16 +20392,16 @@
         <v>24</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H43" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -20460,25 +20409,25 @@
         <v>270</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>297</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20501,10 +20450,10 @@
         <v>446</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H45" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -20512,10 +20461,10 @@
         <v>291</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>327</v>
@@ -20527,10 +20476,10 @@
         <v>600</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20547,16 +20496,16 @@
         <v>24</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -20573,16 +20522,16 @@
         <v>37</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H48" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -20599,16 +20548,16 @@
         <v>45</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>659</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20616,25 +20565,25 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H50" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20642,25 +20591,25 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H51" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -20683,10 +20632,10 @@
         <v>24.09</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H52" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -20703,16 +20652,16 @@
         <v>49</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H53" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20735,10 +20684,10 @@
         <v>0.64285714285714302</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H54" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20761,10 +20710,10 @@
         <v>0.35714285714285698</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H55" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -20781,16 +20730,16 @@
         <v>51</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F56" s="75" t="s">
         <v>660</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H56" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20801,22 +20750,22 @@
         <v>41</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F57" s="55" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H57" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -20836,13 +20785,13 @@
         <v>486</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -20853,22 +20802,22 @@
         <v>52</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H59" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20876,25 +20825,25 @@
         <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F60" s="55" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H60" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -20902,7 +20851,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C61" s="52" t="s">
         <v>629</v>
@@ -20911,16 +20860,16 @@
         <v>53</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F61" s="75" t="s">
         <v>661</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H61" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -20931,7 +20880,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>24</v>
@@ -20940,13 +20889,13 @@
         <v>487</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H62" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20969,10 +20918,10 @@
         <v>601</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H63" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -20980,25 +20929,25 @@
         <v>41</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H64" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -21021,10 +20970,10 @@
         <v>53900</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H65" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -21032,7 +20981,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>539</v>
@@ -21047,10 +20996,10 @@
         <v>0.21</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H66" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -21073,10 +21022,10 @@
         <v>18.29</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H67" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -21087,7 +21036,7 @@
         <v>488</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>78</v>
@@ -21099,10 +21048,10 @@
         <v>602</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H68" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -21110,25 +21059,25 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H69" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21151,10 +21100,10 @@
         <v>490</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H70" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21165,7 +21114,7 @@
         <v>58</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>59</v>
@@ -21174,13 +21123,13 @@
         <v>491</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H71" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21188,10 +21137,10 @@
         <v>44</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>60</v>
@@ -21203,10 +21152,10 @@
         <v>603</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H72" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21226,13 +21175,13 @@
         <v>493</v>
       </c>
       <c r="F73" s="53" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H73" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -21240,25 +21189,25 @@
         <v>46</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F74" s="55" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H74" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21275,16 +21224,16 @@
         <v>63</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F75" s="55" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H75" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21301,16 +21250,16 @@
         <v>65</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="F76" s="53" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H76" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21318,25 +21267,25 @@
         <v>49</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="F77" s="53" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H77" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21344,25 +21293,25 @@
         <v>50</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="F78" s="53" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H78" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -21370,7 +21319,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C79" s="54" t="s">
         <v>631</v>
@@ -21379,16 +21328,16 @@
         <v>67</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F79" s="76" t="s">
         <v>662</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H79" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21396,25 +21345,25 @@
         <v>52</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H80" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21437,10 +21386,10 @@
         <v>604</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H81" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21463,10 +21412,10 @@
         <v>605</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H82" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21480,19 +21429,19 @@
         <v>731</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="F83" s="55" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H83" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -21515,10 +21464,10 @@
         <v>449</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H84" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21535,16 +21484,16 @@
         <v>84</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>663</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H85" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -21561,16 +21510,16 @@
         <v>77</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>664</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H86" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -21587,16 +21536,16 @@
         <v>87</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="F87" s="75" t="s">
         <v>665</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H87" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -21619,10 +21568,10 @@
         <v>0.4</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H88" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21636,7 +21585,7 @@
         <v>544</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E89" s="27">
         <v>3.53</v>
@@ -21645,10 +21594,10 @@
         <v>3.53</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H89" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -21665,16 +21614,16 @@
         <v>83</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H90" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21691,16 +21640,16 @@
         <v>96</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="F91" s="53" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H91" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21708,7 +21657,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>734</v>
@@ -21717,16 +21666,16 @@
         <v>97</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="F92" s="55" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H92" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -21737,22 +21686,22 @@
         <v>98</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F93" s="55" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H93" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -21763,22 +21712,22 @@
         <v>99</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>100</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H94" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21801,10 +21750,10 @@
         <v>0.72</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H95" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -21812,25 +21761,25 @@
         <v>67</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D96" s="85" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F96" s="55" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H96" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" ht="62.25" x14ac:dyDescent="0.25">
@@ -21847,16 +21796,16 @@
         <v>103</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="F97" s="53" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H97" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="36" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -21867,22 +21816,22 @@
         <v>88</v>
       </c>
       <c r="C98" s="54" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D98" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F98" s="60" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G98" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H98" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -21890,25 +21839,25 @@
         <v>69</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D99" s="85" t="s">
         <v>90</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="F99" s="55" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H99" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -21925,16 +21874,16 @@
         <v>92</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="F100" s="53" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H100" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -21951,16 +21900,16 @@
         <v>94</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H101" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
@@ -21968,7 +21917,7 @@
         <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C102" s="52" t="s">
         <v>634</v>
@@ -21977,16 +21926,16 @@
         <v>104</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="F102" s="77" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H102" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -22003,16 +21952,16 @@
         <v>77</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F103" s="75" t="s">
         <v>666</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H103" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -22029,16 +21978,16 @@
         <v>77</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F104" s="75" t="s">
         <v>667</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H104" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -22055,16 +22004,16 @@
         <v>77</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H105" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -22081,16 +22030,16 @@
         <v>77</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F106" s="55" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H106" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -22113,10 +22062,10 @@
         <v>0.72</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H107" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -22139,10 +22088,10 @@
         <v>606</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H108" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -22165,10 +22114,10 @@
         <v>607</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H109" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -22176,25 +22125,25 @@
         <v>87</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F110" s="55" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H110" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="36" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -22211,16 +22160,16 @@
         <v>82</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F111" s="60" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H111" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22237,16 +22186,16 @@
         <v>77</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H112" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -22257,22 +22206,22 @@
         <v>121</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H113" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -22283,7 +22232,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="54" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D114" s="33" t="s">
         <v>111</v>
@@ -22295,10 +22244,10 @@
         <v>668</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H114" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22321,10 +22270,10 @@
         <v>608</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H115" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22332,10 +22281,10 @@
         <v>90</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C116" s="54" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D116" s="33" t="s">
         <v>114</v>
@@ -22344,13 +22293,13 @@
         <v>499</v>
       </c>
       <c r="F116" s="60" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H116" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -22358,25 +22307,25 @@
         <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D117" s="85" t="s">
         <v>115</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H117" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -22384,28 +22333,28 @@
         <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F118" s="75" t="s">
         <v>669</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H118" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I118" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -22413,7 +22362,7 @@
         <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C119" s="73" t="s">
         <v>739</v>
@@ -22422,16 +22371,16 @@
         <v>117</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F119" s="75" t="s">
         <v>670</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H119" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -22439,25 +22388,25 @@
         <v>94</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C120" s="54" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D120" s="33" t="s">
         <v>118</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="F120" s="76" t="s">
         <v>671</v>
       </c>
       <c r="G120" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H120" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -22465,7 +22414,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C121" s="73" t="s">
         <v>740</v>
@@ -22474,16 +22423,16 @@
         <v>119</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F121" s="55" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H121" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -22491,7 +22440,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C122" s="73" t="s">
         <v>741</v>
@@ -22500,16 +22449,16 @@
         <v>122</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F122" s="75" t="s">
         <v>672</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H122" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -22517,7 +22466,7 @@
         <v>100</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C123" s="73" t="s">
         <v>742</v>
@@ -22529,13 +22478,13 @@
         <v>500</v>
       </c>
       <c r="F123" s="83" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H123" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -22558,10 +22507,10 @@
         <v>7</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H124" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -22584,10 +22533,10 @@
         <v>36.799999999999997</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H125" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -22604,16 +22553,16 @@
         <v>82</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F126" s="60" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H126" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22630,16 +22579,16 @@
         <v>83</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="F127" s="60" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G127" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H127" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -22647,25 +22596,25 @@
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="F128" s="55" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H128" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22673,25 +22622,25 @@
         <v>4</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C129" s="52" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D129" s="85" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="F129" s="55" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H129" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22699,25 +22648,25 @@
         <v>5</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C130" s="52" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D130" s="85" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F130" s="55" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H130" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -22740,7 +22689,7 @@
         <v>501</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22763,10 +22712,10 @@
         <v>609</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H132" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22774,25 +22723,25 @@
         <v>8</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="F133" s="55" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H133" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -22800,25 +22749,25 @@
         <v>9</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>552</v>
       </c>
       <c r="D134" s="85" t="s">
+        <v>969</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F134" s="55" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G134" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="E134" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F134" s="55" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>971</v>
-      </c>
       <c r="H134" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22829,7 +22778,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>13</v>
@@ -22841,10 +22790,10 @@
         <v>610</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H135" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22867,10 +22816,10 @@
         <v>673</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H136" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -22887,16 +22836,16 @@
         <v>18</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="F137" s="55" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H137" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -22913,16 +22862,16 @@
         <v>19</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="F138" s="55" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H138" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22930,25 +22879,25 @@
         <v>14</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C139" s="52" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F139" s="55" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H139" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -22965,16 +22914,16 @@
         <v>22</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F140" s="55" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H140" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -22991,16 +22940,16 @@
         <v>24</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="F141" s="55" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H141" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23017,13 +22966,13 @@
         <v>24</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F142" s="55" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="36" customFormat="1" ht="62.25" x14ac:dyDescent="0.25">
@@ -23031,25 +22980,25 @@
         <v>18</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C143" s="54" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>26</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="F143" s="60" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="G143" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H143" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -23066,16 +23015,16 @@
         <v>28</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="F144" s="55" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H144" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23083,7 +23032,7 @@
         <v>20</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C145" s="52" t="s">
         <v>637</v>
@@ -23092,16 +23041,16 @@
         <v>29</v>
       </c>
       <c r="E145" s="44" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F145" s="64" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H145" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -23124,10 +23073,10 @@
         <v>674</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H146" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -23141,19 +23090,19 @@
         <v>556</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F147" s="59" t="s">
         <v>675</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H147" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23161,10 +23110,10 @@
         <v>294</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C148" s="52" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>331</v>
@@ -23176,10 +23125,10 @@
         <v>5</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H148" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -23196,16 +23145,16 @@
         <v>137</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="F149" s="53" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H149" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -23213,10 +23162,10 @@
         <v>113</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C150" s="51" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D150" s="11" t="s">
         <v>138</v>
@@ -23228,10 +23177,10 @@
         <v>611</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H150" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -23239,10 +23188,10 @@
         <v>114</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C151" s="51" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>138</v>
@@ -23254,10 +23203,10 @@
         <v>612</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H151" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -23265,25 +23214,25 @@
         <v>103</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="C152" s="52" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F152" s="55" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H152" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23291,10 +23240,10 @@
         <v>104</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="C153" s="52" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>24</v>
@@ -23306,10 +23255,10 @@
         <v>507</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H153" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -23317,10 +23266,10 @@
         <v>105</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C154" s="52" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D154" s="85" t="s">
         <v>127</v>
@@ -23332,10 +23281,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H154" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -23343,10 +23292,10 @@
         <v>106</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C155" s="52" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D155" s="85" t="s">
         <v>128</v>
@@ -23358,10 +23307,10 @@
         <v>44.89</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H155" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -23369,7 +23318,7 @@
         <v>107</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C156" s="51" t="s">
         <v>557</v>
@@ -23378,16 +23327,16 @@
         <v>129</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F156" s="53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H156" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -23410,10 +23359,10 @@
         <v>613</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H157" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -23424,7 +23373,7 @@
         <v>131</v>
       </c>
       <c r="C158" s="51" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>132</v>
@@ -23433,13 +23382,13 @@
         <v>509</v>
       </c>
       <c r="F158" s="53" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H158" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23456,16 +23405,16 @@
         <v>133</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="F159" s="55" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="G159" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H159" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="160" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -23473,25 +23422,25 @@
         <v>111</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C160" s="51" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="F160" s="53" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H160" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -23508,16 +23457,16 @@
         <v>77</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="F161" s="75" t="s">
         <v>676</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H161" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -23525,25 +23474,25 @@
         <v>116</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C162" s="52" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F162" s="55" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H162" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -23551,10 +23500,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C163" s="52" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>77</v>
@@ -23566,10 +23515,10 @@
         <v>8</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H163" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23577,7 +23526,7 @@
         <v>118</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C164" s="52" t="s">
         <v>639</v>
@@ -23586,16 +23535,16 @@
         <v>24</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F164" s="75" t="s">
         <v>677</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H164" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -23612,16 +23561,16 @@
         <v>140</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F165" s="53" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H165" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23638,16 +23587,16 @@
         <v>77</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H166" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -23664,16 +23613,16 @@
         <v>77</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="F167" s="75" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H167" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -23681,25 +23630,25 @@
         <v>122</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D168" s="33" t="s">
         <v>170</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="F168" s="60" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="G168" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H168" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -23716,16 +23665,16 @@
         <v>77</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F169" s="75" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H169" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -23742,16 +23691,16 @@
         <v>77</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F170" s="75" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H170" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="36" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -23759,25 +23708,25 @@
         <v>125</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>141</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="F171" s="60" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H171" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -23794,16 +23743,16 @@
         <v>77</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F172" s="58" t="s">
         <v>678</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H172" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -23826,10 +23775,10 @@
         <v>40000000</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H173" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23852,10 +23801,10 @@
         <v>614</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H174" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23878,10 +23827,10 @@
         <v>3.3</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H175" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23898,16 +23847,16 @@
         <v>155</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="F176" s="55" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H176" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="177" spans="1:8" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -23915,10 +23864,10 @@
         <v>129</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="C177" s="56" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>148</v>
@@ -23929,7 +23878,7 @@
         <v>511</v>
       </c>
       <c r="H177" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -23946,16 +23895,16 @@
         <v>149</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="F178" s="53" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H178" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -23972,16 +23921,16 @@
         <v>151</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="F179" s="53" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H179" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23998,16 +23947,16 @@
         <v>63</v>
       </c>
       <c r="E180" s="13" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="F180" s="75" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H180" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -24024,16 +23973,16 @@
         <v>77</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F181" s="75" t="s">
         <v>679</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H181" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -24041,7 +23990,7 @@
         <v>134</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C182" s="73" t="s">
         <v>750</v>
@@ -24050,16 +23999,16 @@
         <v>152</v>
       </c>
       <c r="E182" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G182" s="19" t="s">
         <v>1020</v>
       </c>
-      <c r="F182" s="13" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G182" s="19" t="s">
-        <v>1021</v>
-      </c>
       <c r="H182" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -24076,16 +24025,16 @@
         <v>169</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="F183" s="55" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H183" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -24096,22 +24045,22 @@
         <v>157</v>
       </c>
       <c r="C184" s="52" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H184" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -24128,16 +24077,16 @@
         <v>158</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F185" s="75" t="s">
         <v>680</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H185" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24145,7 +24094,7 @@
         <v>141</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C186" s="52" t="s">
         <v>751</v>
@@ -24154,16 +24103,16 @@
         <v>159</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F186" s="55" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="G186" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H186" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24186,10 +24135,10 @@
         <v>4.9720000000000004</v>
       </c>
       <c r="G187" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H187" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24197,7 +24146,7 @@
         <v>137</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C188" s="52" t="s">
         <v>753</v>
@@ -24206,16 +24155,16 @@
         <v>168</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F188" s="55" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="G188" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H188" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -24223,25 +24172,25 @@
         <v>143</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C189" s="73" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E189" s="44" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="F189" s="64" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="G189" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H189" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -24249,25 +24198,25 @@
         <v>144</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C190" s="52" t="s">
-        <v>1835</v>
+        <v>1825</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F190" s="58" t="s">
         <v>681</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H190" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -24284,16 +24233,16 @@
         <v>163</v>
       </c>
       <c r="E191" s="42" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="F191" s="42" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="G191" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H191" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -24310,16 +24259,16 @@
         <v>164</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F192" s="43" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="G192" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H192" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -24336,16 +24285,16 @@
         <v>77</v>
       </c>
       <c r="E193" s="13" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F193" s="75" t="s">
         <v>682</v>
       </c>
       <c r="G193" s="19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H193" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -24362,16 +24311,16 @@
         <v>77</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="F194" s="75" t="s">
         <v>683</v>
       </c>
       <c r="G194" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H194" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -24379,25 +24328,25 @@
         <v>148</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="C195" s="54" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D195" s="33" t="s">
         <v>165</v>
       </c>
       <c r="E195" s="34" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="F195" s="60" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="G195" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H195" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24408,7 +24357,7 @@
         <v>166</v>
       </c>
       <c r="C196" s="52" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D196" s="85" t="s">
         <v>167</v>
@@ -24420,10 +24369,10 @@
         <v>11753</v>
       </c>
       <c r="G196" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H196" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -24437,19 +24386,19 @@
         <v>527</v>
       </c>
       <c r="D197" s="85" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="F197" s="42" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="G197" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H197" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24457,25 +24406,25 @@
         <v>154</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C198" s="54" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F198" s="67" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="G198" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H198" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -24486,22 +24435,22 @@
         <v>174</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>175</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F199" s="53" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="G199" s="18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H199" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -24512,7 +24461,7 @@
         <v>177</v>
       </c>
       <c r="C200" s="51" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>176</v>
@@ -24524,10 +24473,10 @@
         <v>68</v>
       </c>
       <c r="G200" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H200" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="32.25" x14ac:dyDescent="0.25">
@@ -24535,7 +24484,7 @@
         <v>151</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C201" s="52" t="s">
         <v>643</v>
@@ -24544,16 +24493,16 @@
         <v>171</v>
       </c>
       <c r="E201" s="44" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="F201" s="64" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="G201" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H201" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -24561,7 +24510,7 @@
         <v>152</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C202" s="52" t="s">
         <v>642</v>
@@ -24570,16 +24519,16 @@
         <v>172</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F202" s="75" t="s">
         <v>684</v>
       </c>
       <c r="G202" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H202" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="203" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -24598,10 +24547,10 @@
       <c r="E203" s="34"/>
       <c r="F203" s="68"/>
       <c r="G203" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H203" s="81" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -24620,10 +24569,10 @@
       <c r="E204" s="34"/>
       <c r="F204" s="68"/>
       <c r="G204" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H204" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -24642,10 +24591,10 @@
       <c r="E205" s="14"/>
       <c r="F205" s="65"/>
       <c r="G205" s="18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H205" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24653,20 +24602,20 @@
         <v>300</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C206" s="52" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>341</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H206" s="81" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24674,20 +24623,20 @@
         <v>301</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C207" s="52" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F207" s="13"/>
       <c r="G207" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H207" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -24695,20 +24644,20 @@
         <v>302</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C208" s="52" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D208" s="85" t="s">
         <v>343</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H208" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -24727,10 +24676,10 @@
       <c r="E209" s="14"/>
       <c r="F209" s="65"/>
       <c r="G209" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H209" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -24749,10 +24698,10 @@
       <c r="E210" s="14"/>
       <c r="F210" s="65"/>
       <c r="G210" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H210" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -24763,7 +24712,7 @@
         <v>345</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D211" s="11" t="s">
         <v>347</v>
@@ -24771,10 +24720,10 @@
       <c r="E211" s="14"/>
       <c r="F211" s="65"/>
       <c r="G211" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H211" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -24792,10 +24741,10 @@
       </c>
       <c r="F212" s="13"/>
       <c r="G212" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H212" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -24803,7 +24752,7 @@
         <v>307</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C213" s="52" t="s">
         <v>566</v>
@@ -24813,10 +24762,10 @@
       </c>
       <c r="F213" s="13"/>
       <c r="G213" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H213" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -24830,19 +24779,19 @@
         <v>567</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="F214" s="55" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="G214" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H214" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24865,10 +24814,10 @@
         <v>615</v>
       </c>
       <c r="G215" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H215" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24891,10 +24840,10 @@
         <v>25000000</v>
       </c>
       <c r="G216" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H216" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -24917,10 +24866,10 @@
         <v>513</v>
       </c>
       <c r="G217" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H217" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24937,16 +24886,16 @@
         <v>24</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F218" s="55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G218" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H218" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -24969,10 +24918,10 @@
         <v>3830</v>
       </c>
       <c r="G219" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H219" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -24995,10 +24944,10 @@
         <v>8100</v>
       </c>
       <c r="G220" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H220" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -25009,7 +24958,7 @@
         <v>185</v>
       </c>
       <c r="C221" s="51" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>184</v>
@@ -25018,13 +24967,13 @@
         <v>514</v>
       </c>
       <c r="F221" s="53" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="G221" s="18" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H221" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25035,7 +24984,7 @@
         <v>186</v>
       </c>
       <c r="C222" s="51" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>187</v>
@@ -25047,10 +24996,10 @@
         <v>515</v>
       </c>
       <c r="G222" s="18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H222" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -25067,16 +25016,16 @@
         <v>188</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="F223" s="55" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="G223" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H223" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -25087,22 +25036,22 @@
         <v>191</v>
       </c>
       <c r="C224" s="54" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>190</v>
       </c>
       <c r="E224" s="34" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F224" s="60" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G224" s="35" t="s">
         <v>1063</v>
       </c>
-      <c r="F224" s="60" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G224" s="35" t="s">
-        <v>1064</v>
-      </c>
       <c r="H224" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -25110,25 +25059,25 @@
         <v>166</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="C225" s="52" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="F225" s="55" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="G225" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H225" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -25145,16 +25094,16 @@
         <v>24</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="F226" s="55" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="G226" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H226" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="227" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -25165,22 +25114,22 @@
         <v>194</v>
       </c>
       <c r="C227" s="54" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E227" s="34" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="F227" s="60" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="G227" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H227" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -25188,25 +25137,25 @@
         <v>173</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C228" s="52" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E228" s="43" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="F228" s="58" t="s">
         <v>685</v>
       </c>
       <c r="G228" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H228" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -25223,16 +25172,16 @@
         <v>198</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F229" s="75" t="s">
         <v>686</v>
       </c>
       <c r="G229" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H229" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="230" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -25249,16 +25198,16 @@
         <v>199</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="F230" s="75" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="G230" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H230" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25269,7 +25218,7 @@
         <v>354</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>355</v>
@@ -25281,10 +25230,10 @@
         <v>690</v>
       </c>
       <c r="G231" s="18" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H231" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -25292,25 +25241,25 @@
         <v>311</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C232" s="52" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D232" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D232" s="86" t="s">
         <v>356</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="F232" s="55" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="G232" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H232" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="233" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -25318,7 +25267,7 @@
         <v>314</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C233" s="54" t="s">
         <v>646</v>
@@ -25330,13 +25279,13 @@
         <v>451</v>
       </c>
       <c r="F233" s="60" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="G233" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H233" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25344,7 +25293,7 @@
         <v>315</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C234" s="52" t="s">
         <v>647</v>
@@ -25359,10 +25308,10 @@
         <v>1090</v>
       </c>
       <c r="G234" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H234" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -25370,22 +25319,22 @@
         <v>316</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C235" s="52" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F235" s="75" t="s">
         <v>687</v>
       </c>
       <c r="G235" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -25393,22 +25342,22 @@
         <v>317</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C236" s="52" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>452</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="F236" s="75" t="s">
         <v>688</v>
       </c>
       <c r="G236" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -25425,16 +25374,16 @@
         <v>360</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="F237" s="75" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="G237" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H237" s="79" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25442,25 +25391,25 @@
         <v>309</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C238" s="73" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C238" s="52" t="s">
         <v>759</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>353</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F238" s="75" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H238" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25468,7 +25417,7 @@
         <v>174</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C239" s="52" t="s">
         <v>572</v>
@@ -25477,16 +25426,16 @@
         <v>200</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="F239" s="55" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="G239" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H239" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25506,13 +25455,13 @@
         <v>516</v>
       </c>
       <c r="F240" s="55" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="G240" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H240" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25526,19 +25475,19 @@
         <v>573</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="F241" s="75" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="G241" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H241" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -25546,25 +25495,25 @@
         <v>177</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C242" s="52" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="F242" s="55" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="G242" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H242" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="243" spans="1:8" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -25572,25 +25521,25 @@
         <v>178</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C243" s="54" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D243" s="33" t="s">
         <v>204</v>
       </c>
       <c r="E243" s="34" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="F243" s="60" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="G243" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H243" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -25601,10 +25550,10 @@
         <v>361</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>453</v>
@@ -25613,10 +25562,10 @@
         <v>453</v>
       </c>
       <c r="G244" s="18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H244" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25639,10 +25588,10 @@
         <v>689</v>
       </c>
       <c r="G245" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H245" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="246" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25650,10 +25599,10 @@
         <v>327</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C246" s="54" t="s">
-        <v>1722</v>
+        <v>1826</v>
       </c>
       <c r="D246" s="33" t="s">
         <v>369</v>
@@ -25665,10 +25614,10 @@
         <v>690</v>
       </c>
       <c r="G246" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H246" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -25691,10 +25640,10 @@
         <v>455</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H247" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="248" spans="1:8" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -25702,25 +25651,25 @@
         <v>329</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C248" s="54" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="D248" s="33" t="s">
         <v>371</v>
       </c>
       <c r="E248" s="34" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="F248" s="60" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="G248" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H248" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -25728,10 +25677,10 @@
         <v>320</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>114</v>
@@ -25743,10 +25692,10 @@
         <v>616</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H249" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -25759,7 +25708,7 @@
       <c r="E250" s="16"/>
       <c r="F250" s="16"/>
       <c r="G250" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25776,16 +25725,16 @@
         <v>372</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="F251" s="75" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="G251" s="19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H251" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -25798,7 +25747,7 @@
       <c r="C252" s="52" t="s">
         <v>763</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="86" t="s">
         <v>363</v>
       </c>
       <c r="E252" s="13" t="s">
@@ -25808,10 +25757,10 @@
         <v>457</v>
       </c>
       <c r="G252" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H252" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25819,25 +25768,25 @@
         <v>323</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C253" s="73" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C253" s="52" t="s">
         <v>764</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>364</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F253" s="75" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="G253" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H253" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -25860,10 +25809,10 @@
         <v>458</v>
       </c>
       <c r="G254" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H254" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -25886,10 +25835,10 @@
         <v>617</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H255" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25897,25 +25846,25 @@
         <v>188</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C256" s="52" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="F256" s="55" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H256" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -25923,7 +25872,7 @@
         <v>189</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C257" s="52" t="s">
         <v>766</v>
@@ -25938,10 +25887,10 @@
         <v>7.75</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H257" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -25952,22 +25901,22 @@
         <v>216</v>
       </c>
       <c r="C258" s="52" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="F258" s="55" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H258" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -25984,16 +25933,16 @@
         <v>63</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="F259" s="75" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H259" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -26001,25 +25950,25 @@
         <v>192</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C260" s="52" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F260" s="75" t="s">
         <v>691</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H260" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26027,25 +25976,25 @@
         <v>193</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C261" s="52" t="s">
-        <v>1734</v>
+        <v>1828</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="F261" s="55" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H261" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26053,9 +26002,9 @@
         <v>194</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="C262" s="73" t="s">
+        <v>825</v>
+      </c>
+      <c r="C262" s="52" t="s">
         <v>648</v>
       </c>
       <c r="D262" s="3" t="s">
@@ -26065,13 +26014,13 @@
         <v>517</v>
       </c>
       <c r="F262" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H262" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26094,10 +26043,10 @@
         <v>36.49</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H263" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -26114,16 +26063,16 @@
         <v>206</v>
       </c>
       <c r="E264" s="14" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="F264" s="84" t="s">
-        <v>1736</v>
+        <v>1829</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H264" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26131,10 +26080,10 @@
         <v>180</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>207</v>
@@ -26146,10 +26095,10 @@
         <v>4567</v>
       </c>
       <c r="G265" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H265" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26157,10 +26106,10 @@
         <v>181</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C266" s="51" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>207</v>
@@ -26172,10 +26121,10 @@
         <v>7645</v>
       </c>
       <c r="G266" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H266" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -26192,16 +26141,16 @@
         <v>24</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F267" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G267" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H267" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -26209,25 +26158,25 @@
         <v>183</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="C268" s="52" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="F268" s="55" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="G268" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H268" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -26235,25 +26184,25 @@
         <v>184</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C269" s="54" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D269" s="33" t="s">
         <v>209</v>
       </c>
       <c r="E269" s="34" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="F269" s="60" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="G269" s="35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H269" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26270,16 +26219,16 @@
         <v>211</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F270" s="53" t="s">
         <v>618</v>
       </c>
       <c r="G270" s="18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H270" s="12" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26296,16 +26245,16 @@
         <v>213</v>
       </c>
       <c r="E271" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F271" s="53" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G271" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H271" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26322,16 +26271,16 @@
         <v>215</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F272" s="53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G272" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H272" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26354,10 +26303,10 @@
         <v>692</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H273" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26365,9 +26314,9 @@
         <v>334</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C274" s="72" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C274" s="51" t="s">
         <v>769</v>
       </c>
       <c r="D274" s="11" t="s">
@@ -26375,10 +26324,10 @@
       </c>
       <c r="F274" s="65"/>
       <c r="G274" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H274" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26386,25 +26335,25 @@
         <v>335</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C275" s="72" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C275" s="51" t="s">
         <v>770</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>295</v>
       </c>
       <c r="E275" s="14" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="F275" s="70" t="s">
         <v>693</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H275" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -26412,7 +26361,7 @@
         <v>336</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C276" s="52" t="s">
         <v>771</v>
@@ -26427,10 +26376,10 @@
         <v>7170</v>
       </c>
       <c r="G276" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H276" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -26438,7 +26387,7 @@
         <v>337</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C277" s="52" t="s">
         <v>772</v>
@@ -26453,10 +26402,10 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="G277" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H277" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26467,7 +26416,7 @@
         <v>376</v>
       </c>
       <c r="C278" s="51" t="s">
-        <v>1240</v>
+        <v>1830</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>377</v>
@@ -26476,13 +26425,13 @@
         <v>460</v>
       </c>
       <c r="F278" s="53" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H278" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26493,22 +26442,22 @@
         <v>378</v>
       </c>
       <c r="C279" s="51" t="s">
-        <v>1241</v>
+        <v>1831</v>
       </c>
       <c r="D279" s="11" t="s">
         <v>379</v>
       </c>
       <c r="E279" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F279" s="53" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G279" s="18" t="s">
         <v>1123</v>
       </c>
-      <c r="F279" s="53" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G279" s="18" t="s">
-        <v>1124</v>
-      </c>
       <c r="H279" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -26519,22 +26468,22 @@
         <v>381</v>
       </c>
       <c r="C280" s="51" t="s">
-        <v>1242</v>
+        <v>1832</v>
       </c>
       <c r="D280" s="11" t="s">
         <v>380</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="F280" s="53" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H280" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26542,10 +26491,10 @@
         <v>341</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C281" s="56" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>382</v>
@@ -26553,10 +26502,10 @@
       <c r="E281" s="23"/>
       <c r="F281" s="23"/>
       <c r="G281" s="24" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H281" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -26573,16 +26522,16 @@
         <v>383</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F282" s="75" t="s">
         <v>694</v>
       </c>
       <c r="G282" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H282" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26599,16 +26548,16 @@
         <v>385</v>
       </c>
       <c r="E283" s="13" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F283" s="75" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="G283" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H283" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26619,22 +26568,22 @@
         <v>386</v>
       </c>
       <c r="C284" s="51" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="D284" s="11" t="s">
         <v>387</v>
       </c>
       <c r="E284" s="14" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F284" s="53" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H284" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26642,10 +26591,10 @@
         <v>345</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>1745</v>
+        <v>1833</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>355</v>
@@ -26657,10 +26606,10 @@
         <v>690</v>
       </c>
       <c r="G285" s="18" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H285" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26671,7 +26620,7 @@
         <v>388</v>
       </c>
       <c r="C286" s="51" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>382</v>
@@ -26683,10 +26632,10 @@
         <v>690</v>
       </c>
       <c r="G286" s="18" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H286" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26709,10 +26658,10 @@
         <v>461</v>
       </c>
       <c r="G287" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H287" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -26723,16 +26672,16 @@
         <v>373</v>
       </c>
       <c r="C288" s="56" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
       <c r="G288" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H288" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="289" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26743,7 +26692,7 @@
         <v>390</v>
       </c>
       <c r="C289" s="54" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="D289" s="33" t="s">
         <v>391</v>
@@ -26755,10 +26704,10 @@
         <v>619</v>
       </c>
       <c r="G289" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H289" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -26781,10 +26730,10 @@
         <v>24</v>
       </c>
       <c r="G290" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H290" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="291" spans="1:8" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -26792,25 +26741,25 @@
         <v>196</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C291" s="51" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D291" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E291" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F291" s="53" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G291" s="18" t="s">
         <v>1136</v>
       </c>
-      <c r="E291" s="14" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F291" s="53" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G291" s="18" t="s">
-        <v>1137</v>
-      </c>
       <c r="H291" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="292" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -26818,25 +26767,25 @@
         <v>199</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C292" s="74" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C292" s="54" t="s">
         <v>651</v>
       </c>
       <c r="D292" s="33" t="s">
         <v>222</v>
       </c>
       <c r="E292" s="34" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="F292" s="76" t="s">
         <v>695</v>
       </c>
       <c r="G292" s="35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H292" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="293" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -26844,25 +26793,25 @@
         <v>200</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C293" s="54" t="s">
-        <v>1750</v>
+        <v>1834</v>
       </c>
       <c r="D293" s="33" t="s">
         <v>223</v>
       </c>
       <c r="E293" s="34" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F293" s="76" t="s">
         <v>696</v>
       </c>
       <c r="G293" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H293" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26873,22 +26822,22 @@
         <v>41</v>
       </c>
       <c r="C294" s="52" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E294" s="13" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="F294" s="55" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="G294" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H294" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="295" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -26896,25 +26845,25 @@
         <v>197</v>
       </c>
       <c r="B295" s="33" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="D295" s="33" t="s">
         <v>221</v>
       </c>
       <c r="E295" s="34" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="F295" s="60" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="G295" s="35" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H295" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26922,25 +26871,25 @@
         <v>198</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C296" s="52" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E296" s="13" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="F296" s="55" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="G296" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H296" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -26957,16 +26906,16 @@
         <v>394</v>
       </c>
       <c r="E297" s="13" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="F297" s="55" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="G297" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H297" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="298" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -26974,25 +26923,25 @@
         <v>352</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C298" s="54" t="s">
-        <v>1754</v>
+        <v>1835</v>
       </c>
       <c r="D298" s="33" t="s">
         <v>395</v>
       </c>
       <c r="E298" s="34" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F298" s="76" t="s">
         <v>697</v>
       </c>
       <c r="G298" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H298" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="299" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27000,7 +26949,7 @@
         <v>353</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C299" s="74" t="s">
         <v>773</v>
@@ -27009,16 +26958,16 @@
         <v>396</v>
       </c>
       <c r="E299" s="34" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="F299" s="76" t="s">
         <v>698</v>
       </c>
       <c r="G299" s="35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H299" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="300" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -27026,25 +26975,25 @@
         <v>354</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C300" s="54" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="D300" s="33" t="s">
         <v>397</v>
       </c>
       <c r="E300" s="34" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F300" s="76" t="s">
         <v>699</v>
       </c>
       <c r="G300" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H300" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="301" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27055,7 +27004,7 @@
         <v>276</v>
       </c>
       <c r="C301" s="51" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D301" s="11" t="s">
         <v>398</v>
@@ -27067,10 +27016,10 @@
         <v>700</v>
       </c>
       <c r="G301" s="18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H301" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27093,10 +27042,10 @@
         <v>701</v>
       </c>
       <c r="G302" s="18" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H302" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27115,10 +27064,10 @@
       <c r="E303" s="23"/>
       <c r="F303" s="23"/>
       <c r="G303" s="24" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H303" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27135,16 +27084,16 @@
         <v>400</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="F304" s="75" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="G304" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H304" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27161,16 +27110,16 @@
         <v>401</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F305" s="75" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="G305" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H305" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -27178,10 +27127,10 @@
         <v>349</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C306" s="51" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D306" s="11" t="s">
         <v>392</v>
@@ -27193,10 +27142,10 @@
         <v>620</v>
       </c>
       <c r="G306" s="18" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H306" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27204,7 +27153,7 @@
         <v>350</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C307" s="73" t="s">
         <v>775</v>
@@ -27213,16 +27162,16 @@
         <v>393</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="F307" s="75" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="G307" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H307" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -27239,16 +27188,16 @@
         <v>77</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="F308" s="75" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="G308" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H308" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27256,7 +27205,7 @@
         <v>205</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C309" s="73" t="s">
         <v>776</v>
@@ -27271,10 +27220,10 @@
         <v>702</v>
       </c>
       <c r="G309" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H309" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -27291,16 +27240,16 @@
         <v>24</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F310" s="55" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G310" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H310" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27317,16 +27266,16 @@
         <v>24</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F311" s="55" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G311" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H311" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27349,10 +27298,10 @@
         <v>8.1</v>
       </c>
       <c r="G312" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H312" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -27360,25 +27309,25 @@
         <v>202</v>
       </c>
       <c r="B313" s="33" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="C313" s="54" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="D313" s="33" t="s">
         <v>224</v>
       </c>
       <c r="E313" s="34" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="F313" s="60" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="G313" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H313" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="12" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -27395,19 +27344,19 @@
         <v>226</v>
       </c>
       <c r="E314" s="14" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="F314" s="53" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="G314" s="18" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H314" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I314" s="12" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -27424,16 +27373,16 @@
         <v>77</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F315" s="75" t="s">
         <v>703</v>
       </c>
       <c r="G315" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H315" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -27450,16 +27399,16 @@
         <v>77</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F316" s="55" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="G316" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H316" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27467,7 +27416,7 @@
         <v>363</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C317" s="52" t="s">
         <v>779</v>
@@ -27482,10 +27431,10 @@
         <v>432.4</v>
       </c>
       <c r="G317" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H317" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27493,7 +27442,7 @@
         <v>364</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C318" s="52" t="s">
         <v>780</v>
@@ -27508,13 +27457,13 @@
         <v>4324</v>
       </c>
       <c r="G318" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H318" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I318" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -27522,7 +27471,7 @@
         <v>365</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C319" s="52" t="s">
         <v>781</v>
@@ -27537,10 +27486,10 @@
         <v>92</v>
       </c>
       <c r="G319" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H319" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -27563,10 +27512,10 @@
         <v>24.16</v>
       </c>
       <c r="G320" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H320" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27583,16 +27532,16 @@
         <v>411</v>
       </c>
       <c r="E321" s="13" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F321" s="55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G321" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H321" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="322" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27600,10 +27549,10 @@
         <v>366</v>
       </c>
       <c r="B322" s="33" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="C322" s="54" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="D322" s="33" t="s">
         <v>355</v>
@@ -27615,10 +27564,10 @@
         <v>690</v>
       </c>
       <c r="G322" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H322" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27635,16 +27584,16 @@
         <v>413</v>
       </c>
       <c r="E323" s="13" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="F323" s="75" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H323" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27667,10 +27616,10 @@
         <v>470</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H324" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="325" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27693,10 +27642,10 @@
         <v>471</v>
       </c>
       <c r="G325" s="35" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H325" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -27707,7 +27656,7 @@
         <v>431</v>
       </c>
       <c r="C326" s="52" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>406</v>
@@ -27719,10 +27668,10 @@
         <v>472</v>
       </c>
       <c r="G326" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H326" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27739,16 +27688,16 @@
         <v>420</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F327" s="55" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="G327" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H327" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27771,10 +27720,10 @@
         <v>473</v>
       </c>
       <c r="G328" s="35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H328" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27782,7 +27731,7 @@
         <v>374</v>
       </c>
       <c r="B329" s="33" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C329" s="54" t="s">
         <v>784</v>
@@ -27794,13 +27743,13 @@
         <v>474</v>
       </c>
       <c r="F329" s="60" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="G329" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H329" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -27823,10 +27772,10 @@
         <v>475</v>
       </c>
       <c r="G330" s="35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H330" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="331" spans="1:8" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -27837,22 +27786,22 @@
         <v>426</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="D331" s="33" t="s">
         <v>427</v>
       </c>
       <c r="E331" s="34" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F331" s="60" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G331" s="35" t="s">
         <v>1177</v>
       </c>
-      <c r="F331" s="60" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G331" s="35" t="s">
-        <v>1178</v>
-      </c>
       <c r="H331" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -27860,10 +27809,10 @@
         <v>368</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="C332" s="52" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>414</v>
@@ -27872,13 +27821,13 @@
         <v>476</v>
       </c>
       <c r="F332" s="63" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="G332" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H332" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -27901,10 +27850,10 @@
         <v>477</v>
       </c>
       <c r="G333" s="35" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H333" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27912,10 +27861,10 @@
         <v>370</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="C334" s="52" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>417</v>
@@ -27924,13 +27873,13 @@
         <v>478</v>
       </c>
       <c r="F334" s="55" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="G334" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -27949,10 +27898,10 @@
       <c r="E335" s="26"/>
       <c r="F335" s="27"/>
       <c r="G335" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H335" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -27975,10 +27924,10 @@
         <v>704</v>
       </c>
       <c r="G336" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H336" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -27995,16 +27944,16 @@
         <v>24</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="F337" s="55" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="G337" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H337" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -28021,16 +27970,16 @@
         <v>77</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F338" s="75" t="s">
         <v>705</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H338" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -28038,25 +27987,25 @@
         <v>219</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="C339" s="52" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>238</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F339" s="75" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G339" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H339" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="340" spans="1:8" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -28064,25 +28013,25 @@
         <v>211</v>
       </c>
       <c r="B340" s="33" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="C340" s="54" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="D340" s="33" t="s">
         <v>231</v>
       </c>
       <c r="E340" s="34" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="F340" s="60" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="G340" s="35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H340" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="341" spans="1:8" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28099,16 +28048,16 @@
         <v>232</v>
       </c>
       <c r="E341" s="34" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="F341" s="60" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="G341" s="35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H341" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -28125,16 +28074,16 @@
         <v>114</v>
       </c>
       <c r="E342" s="34" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="F342" s="60" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="G342" s="35" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H342" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -28142,7 +28091,7 @@
         <v>214</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C343" s="52" t="s">
         <v>785</v>
@@ -28157,10 +28106,10 @@
         <v>518</v>
       </c>
       <c r="G343" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H343" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28171,22 +28120,22 @@
         <v>234</v>
       </c>
       <c r="C344" s="52" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="F344" s="55" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="G344" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H344" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -28200,19 +28149,19 @@
         <v>590</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E345" s="42" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="F345" s="78" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="G345" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H345" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -28223,7 +28172,7 @@
         <v>432</v>
       </c>
       <c r="C346" s="52" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>406</v>
@@ -28235,10 +28184,10 @@
         <v>479</v>
       </c>
       <c r="G346" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H346" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -28246,25 +28195,25 @@
         <v>380</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C347" s="52" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>433</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="F347" s="75" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H347" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="348" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28272,10 +28221,10 @@
         <v>377</v>
       </c>
       <c r="B348" s="33" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="C348" s="54" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D348" s="33" t="s">
         <v>428</v>
@@ -28287,10 +28236,10 @@
         <v>621</v>
       </c>
       <c r="G348" s="35" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H348" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="349" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28313,10 +28262,10 @@
         <v>622</v>
       </c>
       <c r="G349" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H349" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -28327,7 +28276,7 @@
         <v>240</v>
       </c>
       <c r="C350" s="52" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>241</v>
@@ -28339,10 +28288,10 @@
         <v>519</v>
       </c>
       <c r="G350" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H350" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -28359,16 +28308,16 @@
         <v>250</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F351" s="75" t="s">
         <v>706</v>
       </c>
       <c r="G351" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H351" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="352" spans="1:8" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -28376,25 +28325,25 @@
         <v>222</v>
       </c>
       <c r="B352" s="33" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="C352" s="54" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="D352" s="33" t="s">
         <v>243</v>
       </c>
       <c r="E352" s="34" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="F352" s="60" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="G352" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H352" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="353" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28411,16 +28360,16 @@
         <v>245</v>
       </c>
       <c r="E353" s="34" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="F353" s="60" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="G353" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H353" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28439,10 +28388,10 @@
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
       <c r="G354" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H354" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28450,10 +28399,10 @@
         <v>225</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="C355" s="52" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>247</v>
@@ -28465,10 +28414,10 @@
         <v>520</v>
       </c>
       <c r="G355" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H355" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="356" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -28482,19 +28431,19 @@
         <v>652</v>
       </c>
       <c r="D356" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E356" s="34" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="F356" s="60" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="G356" s="35" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H356" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28505,22 +28454,22 @@
         <v>234</v>
       </c>
       <c r="C357" s="52" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="F357" s="55" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="G357" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H357" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -28528,7 +28477,7 @@
         <v>229</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
       <c r="C358" s="52" t="s">
         <v>741</v>
@@ -28537,16 +28486,16 @@
         <v>251</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="F358" s="75" t="s">
         <v>707</v>
       </c>
       <c r="G358" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H358" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -28554,7 +28503,7 @@
         <v>232</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="C359" s="52" t="s">
         <v>741</v>
@@ -28563,16 +28512,16 @@
         <v>252</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F359" s="75" t="s">
         <v>708</v>
       </c>
       <c r="G359" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H359" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28591,10 +28540,10 @@
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
       <c r="G360" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H360" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -28611,16 +28560,16 @@
         <v>114</v>
       </c>
       <c r="E361" s="34" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="F361" s="60" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="G361" s="35" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H361" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -28643,10 +28592,10 @@
         <v>623</v>
       </c>
       <c r="G362" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H362" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="363" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -28657,22 +28606,22 @@
         <v>274</v>
       </c>
       <c r="C363" s="54" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
       <c r="D363" s="33" t="s">
         <v>275</v>
       </c>
       <c r="E363" s="34" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="F363" s="60" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="G363" s="35" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H363" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="364" spans="1:8" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -28683,22 +28632,22 @@
         <v>276</v>
       </c>
       <c r="C364" s="54" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D364" s="33" t="s">
         <v>277</v>
       </c>
       <c r="E364" s="34" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="F364" s="60" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="G364" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H364" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="365" spans="1:8" s="36" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -28706,25 +28655,25 @@
         <v>234</v>
       </c>
       <c r="B365" s="33" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="C365" s="54" t="s">
-        <v>1809</v>
+        <v>1799</v>
       </c>
       <c r="D365" s="33" t="s">
         <v>255</v>
       </c>
       <c r="E365" s="34" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="F365" s="60" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="G365" s="35" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H365" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="366" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28741,16 +28690,16 @@
         <v>114</v>
       </c>
       <c r="E366" s="34" t="s">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="F366" s="60" t="s">
-        <v>1811</v>
+        <v>1801</v>
       </c>
       <c r="G366" s="35" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H366" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28769,10 +28718,10 @@
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
       <c r="G367" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H367" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="368" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -28783,22 +28732,22 @@
         <v>258</v>
       </c>
       <c r="C368" s="54" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D368" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E368" s="34" t="s">
-        <v>1812</v>
+        <v>1802</v>
       </c>
       <c r="F368" s="60" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="G368" s="35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H368" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="369" spans="1:8" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -28815,16 +28764,16 @@
         <v>260</v>
       </c>
       <c r="E369" s="34" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="F369" s="76" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="G369" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H369" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -28841,16 +28790,16 @@
         <v>261</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="F370" s="75" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G370" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H370" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28861,22 +28810,22 @@
         <v>262</v>
       </c>
       <c r="C371" s="52" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="F371" s="55" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="G371" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H371" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -28884,10 +28833,10 @@
         <v>241</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C372" s="73" t="s">
-        <v>789</v>
+        <v>1256</v>
+      </c>
+      <c r="C372" s="52" t="s">
+        <v>1827</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>264</v>
@@ -28899,10 +28848,10 @@
         <v>27</v>
       </c>
       <c r="G372" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H372" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -28910,25 +28859,25 @@
         <v>244</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C373" s="52" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="F373" s="55" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="G373" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H373" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -28936,25 +28885,25 @@
         <v>245</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="C374" s="52" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="F374" s="55" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="G374" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H374" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="375" spans="1:8" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -28962,25 +28911,25 @@
         <v>242</v>
       </c>
       <c r="B375" s="33" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C375" s="74" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D375" s="33" t="s">
         <v>265</v>
       </c>
       <c r="E375" s="34" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="F375" s="76" t="s">
         <v>709</v>
       </c>
       <c r="G375" s="35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H375" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="376" spans="1:8" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -28988,25 +28937,25 @@
         <v>243</v>
       </c>
       <c r="B376" s="33" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C376" s="54" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="D376" s="33" t="s">
         <v>266</v>
       </c>
       <c r="E376" s="34" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F376" s="76" t="s">
         <v>710</v>
       </c>
       <c r="G376" s="35" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H376" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -29017,7 +28966,7 @@
         <v>270</v>
       </c>
       <c r="C377" s="52" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>268</v>
@@ -29029,10 +28978,10 @@
         <v>711</v>
       </c>
       <c r="G377" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H377" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -29043,22 +28992,22 @@
         <v>271</v>
       </c>
       <c r="C378" s="52" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F378" s="55" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="G378" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H378" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -29069,22 +29018,22 @@
         <v>272</v>
       </c>
       <c r="C379" s="52" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="F379" s="55" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="G379" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H379" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="380" spans="1:8" s="36" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -29092,25 +29041,25 @@
         <v>249</v>
       </c>
       <c r="B380" s="33" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
       <c r="C380" s="54" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="D380" s="33" t="s">
         <v>338</v>
       </c>
       <c r="E380" s="34" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
       <c r="F380" s="60" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
       <c r="G380" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H380" s="79" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="385" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
